--- a/documents/trial_balances/HazTrain TB.2018 by month GENAESIS Confidential.xlsx
+++ b/documents/trial_balances/HazTrain TB.2018 by month GENAESIS Confidential.xlsx
@@ -5,40 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\TIMS STUFF\GENAESIS INFO\2022 Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74EC64E2-B48C-4C90-9A2C-D803BD48E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF159D22-2232-46DC-9313-239C0BC869CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2018 Trial Balance" sheetId="1" r:id="rId1"/>
-    <sheet name="Feb.2018 Trail Balance" sheetId="2" r:id="rId2"/>
+    <sheet name="Feb 2018 Trail Balance" sheetId="2" r:id="rId2"/>
     <sheet name="March 2018 Trial Balance" sheetId="3" r:id="rId3"/>
     <sheet name="April 2018 Trial Balance" sheetId="4" r:id="rId4"/>
     <sheet name="May 2018 Trial Balance" sheetId="5" r:id="rId5"/>
     <sheet name="June 2018 Trial Balance" sheetId="6" r:id="rId6"/>
     <sheet name="July 2018 Trial Balance" sheetId="7" r:id="rId7"/>
     <sheet name="August 2018 Trial Balance" sheetId="8" r:id="rId8"/>
-    <sheet name="Sept. 2018 Trial Balance" sheetId="9" r:id="rId9"/>
+    <sheet name="Sept 2018 Trial Balance" sheetId="9" r:id="rId9"/>
     <sheet name="October 2018 Trial Balance" sheetId="10" r:id="rId10"/>
-    <sheet name="Nov. 2018 Trial Balance" sheetId="11" r:id="rId11"/>
+    <sheet name="Nov 2018 Trial Balance" sheetId="11" r:id="rId11"/>
     <sheet name="December 2018 Trial Balance" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'August 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'December 2018 Trial Balance'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Feb.2018 Trail Balance'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Feb 2018 Trail Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Jan 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'July 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'June 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'March 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'May 2018 Trial Balance'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'Nov. 2018 Trial Balance'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'Nov 2018 Trial Balance'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'October 2018 Trial Balance'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'Sept. 2018 Trial Balance'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'Sept 2018 Trial Balance'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1036,20 +1036,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>363365.92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>187.67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>1185469.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>6201.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>254985.96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>336864.26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>78999.259999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>38149.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>14704.21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>4733.87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>138572.46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>204803.83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>268036.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>232753.57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>3730.81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>6985.49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>68647.600000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>290427.74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>104.93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>169554.07</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>77624.929999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>21338.799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>13612.14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>5284.68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>30229.279999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>7558.62</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>33180.04</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>4557.22</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>29549.24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>937.1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>24179.29</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2037.47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1457.59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>8519.32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>191.58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>375.98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>2457.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>9332.99</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>1078.6500000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1088.77</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>43.24</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1308.8900000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>2866.02</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>24882.78</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>1290.82</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>221.97</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>682.84</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>99.15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>138</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>260.24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>140</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>2150.7399999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>25250</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>5106.04</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>146</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>148</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>150</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>779.72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>152</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>154</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>790.51</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>156</v>
       </c>
@@ -1910,11 +1910,11 @@
         <v>40.770000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>158</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>4452800.6000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
@@ -1959,15 +1959,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1065999.75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>2333.77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>935749.68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>5827.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>369399.39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>147975.39000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>37722.160000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>7063.48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>286.42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>25407.14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>131408.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1296249.52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>1550562.94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>1362258.66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>267515.12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>280390.90000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>10665</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>325293.51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>1865446.42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>4639.1099999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>2121326.34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>786663.36</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>363801.79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>118588.75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>156132.42000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>156319.73000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>184</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>206.72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>85218.42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>93673.62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>56078.85</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>299389.51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>10518.18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>243937.27</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>3126.33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>24059.32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1696.36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3022.71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>2089.6799999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>108</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>1603.97</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>16259.41</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>180</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>54759.7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>709.32</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>4779.97</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>6727.73</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>13044.07</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>6638.41</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>6245.05</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>35401.15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>207761.48</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>9662.2999999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>9846.42</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>2792.23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>160</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1979.15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>6723.69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>749.16</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>140</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>35883.33</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>252500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>71991.83</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>146</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>13628</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>102765.69</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>6713.48</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>152</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>182</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>154</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>3117.77</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>172</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1051.6199999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>156</v>
       </c>
@@ -2982,11 +2982,11 @@
         <v>9536.7999999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
     </row>
-    <row r="94" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>158</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>10492722.82</v>
       </c>
     </row>
-    <row r="95" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
@@ -3026,20 +3026,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>866606.91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>697.86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1278707.74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>4744.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>373358.62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>185221.67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>6214.51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>832.31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>24927.759999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>141342.14000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>1379979.47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>1691060.35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1478937.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>267515.12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>342493.66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>10665</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>342493.26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>2131669.56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>5191.43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>2372307.7799999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>852964.71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>384243.04</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>123807.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>194060.24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>180015.43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>184</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>413.44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>94306.45</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>103485.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>68516.710000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>330825.18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>11636.92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>270655.3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>3161.47</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>24059.32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1696.36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>3069.71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>2282.9699999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>108</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>2104.62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>16259.41</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>180</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>54759.7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>824.23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>5009.92</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>7478.84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>15167.18</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>7479.6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>6448.64</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>39360.379999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>229328.28</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>10728.95</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>10636.49</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>2792.23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>160</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>2167.15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>6699.72</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>831.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>140</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>38504.53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>277750</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>81276.91</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>146</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>14128</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>111765.69</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>7922.06</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>152</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>188</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>182</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>154</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>2951.9</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>172</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1051.6199999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>156</v>
       </c>
@@ -4065,11 +4065,11 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="94" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
     </row>
-    <row r="95" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>158</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>11206424.85</v>
       </c>
     </row>
-    <row r="96" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
@@ -4114,15 +4114,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>132985.04</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>578.46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>783485.54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>4661.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>215334.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>299526.03999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>106.36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>6771.88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>24448.38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>139895.15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>178</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>983000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1379979.47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>1691060.35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1478937.32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>287795.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>361875.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>174</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>10665</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>379298.89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2131669.56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>5534.71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>164</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>2613945.69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>962727.81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>402586.12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>137245.69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>239822.51</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>84300</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>193578.48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>413.44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>107601.31</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>120345.52</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>78100.98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>359496.06</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>12862.29</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>301202.01</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>3161.47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>29239.32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1835.33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>14247</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>2282.9699999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>2500.46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>16259.41</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>180</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>67560.33</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>824.23</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>5169.92</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>7877.8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>17339.71</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>10303.42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>7124.58</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>35941.800000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>246087.12</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>11818.14</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>11672.71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>2792.23</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>2520.0300000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>7895.27</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>166</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>831.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>38908.47</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>315795.33</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>89109.51</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>170</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>146</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>15128</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>186</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>168</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>120765.69</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>9630.89</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>188</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>190</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>2238.65</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>182</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>154</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>3808.91</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1051.6199999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>156</v>
       </c>
@@ -5104,11 +5104,11 @@
         <v>691.13</v>
       </c>
     </row>
-    <row r="90" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
-    <row r="91" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>158</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>10973308.290000003</v>
       </c>
     </row>
-    <row r="92" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
@@ -5150,18 +5150,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>393616.83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>8751.5300000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1302821.04</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>6118.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>254985.96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>339730.28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>131690.82999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>37541.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>13855.24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>4176.0600000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>131714.76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>310874.71000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>402054.78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>414427</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>41297.53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>27229.27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>95998.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>435641.66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>310.73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>402247.49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>173632.38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>62497.85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>20783.72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>13066.42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>36645.11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>15353.49</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>33180.04</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>9641.82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>62348.37</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>1873.06</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>50098.11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2689.16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>2383.0700000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>8519.32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>256.81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>191.58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>546.49</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>2457.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>9332.99</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>188.07</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1505.14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>2166.14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>60.19</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>2183.7600000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>5732.04</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>49515.42</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>2156.77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>695.09</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>1235.79</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>160</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>287.14999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>260.24</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>3983.61</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>11720.79</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1606.82</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>790.51</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -6033,11 +6033,11 @@
         <v>33.24</v>
       </c>
     </row>
-    <row r="80" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>5156329.8000000017</v>
       </c>
     </row>
-    <row r="82" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
@@ -6082,15 +6082,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>904516.59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>260.68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>980978.19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>6118.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>343075.68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>100735.17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>50405.66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>13006.27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>3618.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>28283.42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>144917.99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>463002.34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>571014.57999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>545508.04</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>62577.84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>49398.36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>134960.20000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>595904.22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>1116.1300000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>599973.24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>234929.19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>103216.56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>42046.77</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>16761.810000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>58693.67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>23587.56</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>45842.27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>14673.52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>90357.89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>2876.07</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>73203.199999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>2705.23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>2431.21</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>8519.32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>569.29</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>547.33000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>734.48</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>658.53</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>2457.4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>9062.99</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>188.07</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>2048.6999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3582.64</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>60.19</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>2806.22</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>9077.44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>70260.460000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>3110.2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>3768.66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>2536.2600000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>475.15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>260.24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>166</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>7564.48</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>75750</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>19049.900000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>146</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>168</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>6934.64</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>148</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>2307.69</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>152</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>1061.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>154</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>790.51</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>156</v>
       </c>
@@ -7006,11 +7006,11 @@
         <v>33.24</v>
       </c>
     </row>
-    <row r="84" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>158</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>5883810.3700000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
@@ -7055,15 +7055,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>943225.22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>142.91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>1111898.08</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>6118.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>346421.08</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>157465.21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>57797.49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>12157.3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>3060.44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>28283.42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>135362.26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>597858.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>710856.43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>662186.69999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>79646.740000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>76782.59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>181347.67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>756166.78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1484.92</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>817818.64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>310149.52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>141823.51999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>61438.9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>22836</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>64516.83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>32214.13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>45842.27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>19691.48</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>120002.37</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>4120.75</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>97193.34</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>2755.18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>2482.54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>13699.32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>569.29</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>1272.33</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>916.64</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>973.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>6934.74</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>20614.490000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>194.35</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>910.28</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>2583.66</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>4864.72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>60.19</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>3323.26</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>12422.84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>89053.71</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>4030.57</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>4382.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>2568.2600000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>663.15</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1685.47</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>166</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>208.99</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>10286.51</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>26206.53</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>170</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>146</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>168</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>6934.64</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>148</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>150</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>3027.83</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>152</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>154</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>1097.1300000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>172</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
@@ -8001,11 +8001,11 @@
         <v>33.24</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
-    <row r="87" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>158</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>6587403.3700000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
@@ -8050,15 +8050,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>923598.07</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>90.81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>1329626.1200000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>6118.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>350067.58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>152821.07</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>38301.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>11308.33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>2502.63</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>27804.04</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>131642.54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>773643.05</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>850698.28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>778865.36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>144651.54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>141094.18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>196047.42</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>916429.34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>1850.63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>164</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1039261.61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>362171.15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>189300.9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>71241.850000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>76</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>43428.81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>74239.240000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>40941.51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>84</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>45842.27</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>24483.37</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>150038.01</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>4966.7700000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>121030.79</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>2783.47</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>2527.4699999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>98</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>13699.32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>569.29</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>1272.33</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>1104.6300000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>108</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>1239.6600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>6934.74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>20614.490000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>371.84</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>1095.23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>3462.04</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>6092.64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>60.19</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>3520.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>16069.34</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>128</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>107155.24</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>130</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>4950.8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>4902.8900000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>2568.2600000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>851.15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>138</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>2674.27</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>166</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>208.99</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>140</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>16159</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>126250</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>33783.35</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>170</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>146</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>11592</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>168</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>3685.81</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>1806.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>154</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1097.1300000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>156</v>
       </c>
@@ -9007,11 +9007,11 @@
         <v>156.76</v>
       </c>
     </row>
-    <row r="87" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
     </row>
-    <row r="88" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>158</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>7308138.7999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
@@ -9056,15 +9056,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>668753.06000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>124.79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>925330.26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>6118.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>353792.15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>61519.64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>37848.870000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>10459.36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1944.82</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>27324.66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>129024.38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>82.94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>904471.05</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>990540.13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>895544.02</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>162712.92000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>187073.33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>242830.61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1076691.8999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>2807.67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>1249324.29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>495429.92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>242410.88</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>75490.539999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>82579.53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>91671.99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>49803.13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>57702.15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>29390.62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>181284.06</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>5988.14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>145341.44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>2783.47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>13699.32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>595.32000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>1272.33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>106</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>1297.92</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>1297.45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>6934.74</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>180</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>28760.560000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>379.01</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>1821.02</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>4322.79</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>7600.62</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>60.19</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>4388.8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>126</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>19793.91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>126478.19</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>5940.55</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>6050.38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>134</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>2689.89</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1227.1500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>138</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>3719.14</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>208.99</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>140</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>18232.53</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>151500</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>144</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>41487.919999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>170</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>146</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>12128</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>148</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>4358.75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>152</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>2446.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>154</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>1954.14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
@@ -10057,11 +10057,11 @@
         <v>156.76</v>
       </c>
     </row>
-    <row r="91" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>158</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>7879496.4900000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
@@ -10106,15 +10106,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>926179.46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>62.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>834680.42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>6076.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>357521.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>121970.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>36325.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>9610.39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>1387.01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>26845.279999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>123428.2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>248.82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>997387.78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>1130381.98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>1012222.68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>195348.37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>229516.35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>260854.33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>1237544.56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>3160.17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>1434354.23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>552388.23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>275675.13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>89693.65</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>88260.98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>100497.09</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>58067.32</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>69725.53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>32668.45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>208526.24</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>7235.83</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>167253.79</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>2783.47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>18879.32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>595.32000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>1272.33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>106</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1497.41</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1351.12</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>11647.94</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>180</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>42681.13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>553.65</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>1981.02</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>4824.1400000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>8849.2099999999991</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>1256.75</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>4835.88</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>126</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>23523.46</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>146813.32</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>6857.01</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>6938.16</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>134</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>2659.72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>1415.15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>138</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>5034.13</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>208.99</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>140</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>22323.66</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>176750</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>144</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>48695.92</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>170</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>146</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>12628</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>148</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>75765.69</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>5086.04</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>152</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>2586.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>154</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>2260.7600000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>1051.6199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
@@ -11107,11 +11107,11 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="91" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>158</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>8544216.5800000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
@@ -11156,15 +11156,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>999353.98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>37.67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>827979.96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>5993.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>361480.93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>82967.34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>38757.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>8761.42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>829.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>26365.9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>110158.78</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>165.88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>1108656.67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>1270223.83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1128901.3400000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>228323.29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>264803.73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>282089.08</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1398127.26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>3600.23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>1667884.27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>606894.57999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>304400.26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>96344.639999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>97777.32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>102243.92</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>67556.45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>69725.53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>36565.93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>240391.89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>8242.8700000000008</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>192298.71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>2787.47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>18879.32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>1038.52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>1272.33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>106</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>1696.9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>1412.75</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>11647.94</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>180</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>42681.13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>624.73</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>2141.02</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>5424.29</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>10179.200000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>6638.41</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>5462.14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>126</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>27482.69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>163430.45000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>7815.88</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>8589.42</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>134</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>2659.72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>1603.15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>138</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>6362.63</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>244.99</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>140</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>28855.79</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>144</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>56741.83</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>170</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>146</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>12628</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>148</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>84765.69</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>6122.33</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>152</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>2726.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>154</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>3117.77</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1051.6199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
@@ -12157,11 +12157,11 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="91" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
     </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>158</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>9113457.8100000005</v>
       </c>
     </row>
-    <row r="93" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
@@ -12203,18 +12203,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>1116956.19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>369.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>1235.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>888404.35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>5910.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>107787</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>285748.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>365440.16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>212.68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>1942707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>126320.66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>19317.080000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>7912.45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>271.39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>25886.52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>116690.84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>653911.81000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>1234830.53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>1410065.53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>1245580</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>267515.12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>275889.71999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>6965</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>308918.83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>1622411.69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>4005.65</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>1885294.59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>674845.93</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>338722.54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>112800.01</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>116191.82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>130424.12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>184</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>206.72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>76664.160000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>83608.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>40940.19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>270833.28999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>9086.65</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>217756.24</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>2915.16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>2528.8200000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>100</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>18879.32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>1038.52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>2575.11</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>106</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>1890.19</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>108</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>1550.59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>11647.94</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>180</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>42681.13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>632.63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>2301.02</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>6072.83</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>11507.34</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>6638.41</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>5462.14</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>31441.919999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>188212.43</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>8732.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>9236.44</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>2780.42</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>160</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>1791.15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>6723.69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>244.99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>140</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>30845.26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>227250</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>64441.48</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>1006.38</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>146</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>13628</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>168</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>18893.77</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>148</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>93765.69</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>150</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>7936.82</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>152</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>2866.5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>154</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>3117.77</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>172</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>1051.6199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>156</v>
       </c>
@@ -13218,11 +13218,11 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="92" spans="1:4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" s="4" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>158</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>9844616.2500000019</v>
       </c>
     </row>
-    <row r="94" spans="1:4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
